--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1693628.351065225</v>
+        <v>1721363.846097449</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>584112.2327371377</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6684625.454516198</v>
+        <v>6684625.4545162</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>208.0250417001232</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,64 +665,64 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>43.41684592783125</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>131.1096832932227</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>186.9919489137623</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,25 +1023,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>169.9991617898137</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>188.9257796665961</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>89.60080807427005</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>119.4907401515953</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>101.1568009176699</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>79.89438504347802</v>
       </c>
       <c r="D12" t="n">
-        <v>70.12830304199542</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1464,7 +1464,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.2952677809261</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>17.33962853514427</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>3.062277887577184</v>
+        <v>117.5370862714167</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1813,7 +1813,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.060641163564</v>
+        <v>96.06064116356406</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>56.06257007945281</v>
       </c>
       <c r="S17" t="n">
-        <v>125.1785149016546</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="S18" t="n">
-        <v>6.719253572850684</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>81.63772211848432</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>202.1911205836255</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>152.8744789644262</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>47.70803127126448</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>112.3079472530807</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.68313739545469</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>141.6396260835076</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,10 +2381,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>263.5763095174818</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>94.12001078391332</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0501874122703</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>179.3720598661022</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.666355695962126</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2643,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>158.1748982576306</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>26.24406001478086</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>197.5113555684271</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>162.6046729685541</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,16 +2880,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>122.0501874122705</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>35.24873668490621</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>98.68313739545452</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>176.8839300665534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>385.9941988845332</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>98.80659320001101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.0273116445449</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>122.0501874122705</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.88504894832686</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>317.9232000058214</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>139.7016501728109</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.42522453130207</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>68.81949856689799</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>85.6741788943543</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>85.67417889435382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3582,19 +3582,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>130.7750196105016</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>28.83662026060023</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.68313739545452</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>51.45104316294784</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>23.09588249222499</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3819,16 +3819,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>5.384400220400132</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.88130543734933</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.76004691138451</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0947768283674</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>139.2752734259057</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>25.37527508885704</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>88.83975893090772</v>
       </c>
     </row>
     <row r="46">
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>30.44996741998445</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>325.7766548071333</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>82.32787816303323</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y2" t="n">
-        <v>569.2254314512334</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,19 +4413,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>227.7955745279523</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>227.7955745279523</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>292.9211302503287</v>
       </c>
     </row>
     <row r="4">
@@ -4510,28 +4510,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.1872303756613</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C5" t="n">
-        <v>278.1872303756613</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D5" t="n">
-        <v>278.1872303756613</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1872303756613</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>765.0847836638613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>521.6360070197613</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4650,13 +4650,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4671,22 +4671,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y6" t="n">
         <v>20.03527576299844</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4765,10 +4765,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>846.5570557448675</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W9" t="n">
-        <v>603.1082791007675</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="10">
@@ -4978,22 +4978,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.2627134053891</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="C11" t="n">
-        <v>921.2627134053891</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="D11" t="n">
-        <v>562.9970147986387</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E11" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1520.787701202084</v>
       </c>
       <c r="T11" t="n">
-        <v>1311.402045381201</v>
+        <v>1298.043781582852</v>
       </c>
       <c r="U11" t="n">
-        <v>1311.402045381201</v>
+        <v>1298.043781582852</v>
       </c>
       <c r="V11" t="n">
-        <v>1311.402045381201</v>
+        <v>966.980894239281</v>
       </c>
       <c r="W11" t="n">
-        <v>1311.402045381201</v>
+        <v>966.980894239281</v>
       </c>
       <c r="X11" t="n">
-        <v>1311.402045381201</v>
+        <v>966.980894239281</v>
       </c>
       <c r="Y11" t="n">
-        <v>921.2627134053891</v>
+        <v>966.980894239281</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.1093162839453</v>
+        <v>785.6148972470867</v>
       </c>
       <c r="C12" t="n">
-        <v>737.1093162839453</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
@@ -5118,19 +5118,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L12" t="n">
-        <v>505.948365158507</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M12" t="n">
-        <v>905.36650176277</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.050658039703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5142,28 +5142,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894781</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V12" t="n">
-        <v>944.9608164894781</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="W12" t="n">
-        <v>944.9608164894781</v>
+        <v>1201.226696217573</v>
       </c>
       <c r="X12" t="n">
-        <v>737.1093162839453</v>
+        <v>993.3751960120405</v>
       </c>
       <c r="Y12" t="n">
-        <v>737.1093162839453</v>
+        <v>785.6148972470867</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5221,28 +5221,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1035.258356178821</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C14" t="n">
-        <v>1017.743579880696</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D14" t="n">
-        <v>1017.743579880696</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E14" t="n">
-        <v>631.9553272824514</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F14" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5303,25 +5303,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X14" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y14" t="n">
-        <v>1035.258356178821</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>879.3665274943975</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H15" t="n">
         <v>111.7947023326189</v>
@@ -5355,16 +5355,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321104</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N15" t="n">
         <v>1057.709031609044</v>
@@ -5379,28 +5379,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V15" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W15" t="n">
-        <v>1368.728931259408</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>1255.342163279419</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>1047.581864514465</v>
       </c>
     </row>
     <row r="16">
@@ -5437,25 +5437,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642184</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
         <v>129.4902764300189</v>
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1566.337429321495</v>
       </c>
       <c r="S17" t="n">
-        <v>1382.527700869072</v>
+        <v>1566.337429321495</v>
       </c>
       <c r="T17" t="n">
-        <v>1159.783781249839</v>
+        <v>1343.593509702263</v>
       </c>
       <c r="U17" t="n">
-        <v>905.9468981820935</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="V17" t="n">
-        <v>574.8840108385228</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W17" t="n">
-        <v>222.1153555684087</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32.45932575975218</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
@@ -5595,13 +5595,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L18" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N18" t="n">
         <v>1057.709031609043</v>
@@ -5616,28 +5616,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="S18" t="n">
-        <v>1534.78160306728</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="T18" t="n">
-        <v>1333.878594172773</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="U18" t="n">
-        <v>1105.675926710251</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="V18" t="n">
-        <v>870.5238184785085</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="W18" t="n">
-        <v>616.2864617503069</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X18" t="n">
-        <v>408.4349615447741</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y18" t="n">
-        <v>200.6746627798202</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.9216713339788</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
         <v>32.45932575975218</v>
@@ -5692,31 +5692,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="C20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="D20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="E20" t="n">
-        <v>968.7637269953004</v>
+        <v>983.3411523216193</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953004</v>
+        <v>573.5011806075765</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812577</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1354.551979593545</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T20" t="n">
-        <v>1354.551979593545</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="W20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="X20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="Y20" t="n">
-        <v>1354.551979593545</v>
+        <v>1369.129404919864</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.6900832088122</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C21" t="n">
-        <v>790.2370539276852</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D21" t="n">
-        <v>641.302644266434</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E21" t="n">
-        <v>482.0651892609785</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
-        <v>335.5306312878635</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>228.9816661413135</v>
       </c>
       <c r="L21" t="n">
-        <v>505.948365158507</v>
+        <v>526.7134211229767</v>
       </c>
       <c r="M21" t="n">
-        <v>905.36650176277</v>
+        <v>847.0487406526785</v>
       </c>
       <c r="N21" t="n">
-        <v>1299.952780813051</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O21" t="n">
-        <v>1622.966287987609</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1340.665718993834</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1340.665718993834</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V21" t="n">
-        <v>1340.665718993834</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W21" t="n">
-        <v>1340.665718993834</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="X21" t="n">
-        <v>1340.665718993834</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="Y21" t="n">
-        <v>1132.90542022888</v>
+        <v>709.8087082577358</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U22" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V22" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W22" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X22" t="n">
-        <v>132.1392625228377</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975218</v>
+        <v>1402.17370884408</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6002,37 +6002,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>1479.895958610329</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V23" t="n">
-        <v>1148.833071266758</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W23" t="n">
-        <v>796.0644159966438</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="X23" t="n">
-        <v>422.5986577355639</v>
+        <v>419.059165823874</v>
       </c>
       <c r="Y23" t="n">
-        <v>32.45932575975218</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>784.9017952688528</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="C24" t="n">
-        <v>610.4487659877258</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="D24" t="n">
-        <v>461.5143563264745</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="E24" t="n">
-        <v>302.276901321019</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="F24" t="n">
-        <v>155.742343347904</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>256.6067387278472</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1622.966287987609</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V24" t="n">
-        <v>1622.966287987609</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W24" t="n">
-        <v>1368.728931259408</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X24" t="n">
-        <v>1160.877431053875</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="Y24" t="n">
-        <v>953.1171322889209</v>
+        <v>455.5713515295342</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6178,19 +6178,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>623.4831963284437</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="C26" t="n">
-        <v>623.4831963284437</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="D26" t="n">
-        <v>623.4831963284437</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="E26" t="n">
-        <v>623.4831963284437</v>
+        <v>449.032990095979</v>
       </c>
       <c r="F26" t="n">
-        <v>442.299297473795</v>
+        <v>39.19301838193616</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>39.19301838193616</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>39.19301838193616</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975219</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V26" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="W26" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="X26" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="Y26" t="n">
-        <v>1010.083036392565</v>
+        <v>834.8212426942232</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>515.0842197075859</v>
+        <v>879.3665274943975</v>
       </c>
       <c r="C27" t="n">
-        <v>340.6311904264589</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975219</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975219</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>91.88297124942892</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L27" t="n">
-        <v>389.6147262310921</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M27" t="n">
-        <v>789.0328628353551</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N27" t="n">
-        <v>1190.717019112288</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O27" t="n">
-        <v>1513.730526286846</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1463.193663484952</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1463.193663484952</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894784</v>
+        <v>1463.193663484952</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577356</v>
+        <v>1463.193663484952</v>
       </c>
       <c r="W27" t="n">
-        <v>683.2995567276539</v>
+        <v>1463.193663484952</v>
       </c>
       <c r="X27" t="n">
-        <v>683.2995567276539</v>
+        <v>1255.342163279419</v>
       </c>
       <c r="Y27" t="n">
-        <v>683.2995567276539</v>
+        <v>1047.581864514465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.5981367727104</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E28" t="n">
         <v>32.45932575975219</v>
@@ -6409,25 +6409,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X28" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>617.7539981240844</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C29" t="n">
-        <v>617.7539981240844</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D29" t="n">
-        <v>617.7539981240844</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E29" t="n">
-        <v>231.9657455258402</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F29" t="n">
         <v>32.45932575975219</v>
@@ -6488,25 +6488,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T29" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U29" t="n">
-        <v>948.8168854676551</v>
+        <v>1458.719143574929</v>
       </c>
       <c r="V29" t="n">
-        <v>617.7539981240844</v>
+        <v>1127.656256231358</v>
       </c>
       <c r="W29" t="n">
-        <v>617.7539981240844</v>
+        <v>774.8876009612438</v>
       </c>
       <c r="X29" t="n">
-        <v>617.7539981240844</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="Y29" t="n">
-        <v>617.7539981240844</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>419.9665669993257</v>
+        <v>784.901795268853</v>
       </c>
       <c r="C30" t="n">
-        <v>419.9665669993257</v>
+        <v>610.448765987726</v>
       </c>
       <c r="D30" t="n">
-        <v>271.0321573380744</v>
+        <v>461.5143563264747</v>
       </c>
       <c r="E30" t="n">
-        <v>111.7947023326189</v>
+        <v>302.2769013210192</v>
       </c>
       <c r="F30" t="n">
-        <v>111.7947023326189</v>
+        <v>155.7423433479042</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L30" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M30" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609044</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>944.9608164894784</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V30" t="n">
-        <v>709.8087082577356</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W30" t="n">
-        <v>455.571351529534</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X30" t="n">
-        <v>419.9665669993257</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y30" t="n">
-        <v>419.9665669993257</v>
+        <v>953.1171322889211</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1444.295651556747</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C31" t="n">
-        <v>1444.295651556747</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D31" t="n">
         <v>1294.179012144412</v>
@@ -6646,25 +6646,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>1523.286351224524</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y31" t="n">
-        <v>1444.295651556747</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D32" t="n">
-        <v>948.8168854676551</v>
+        <v>1264.700589380859</v>
       </c>
       <c r="E32" t="n">
-        <v>948.8168854676551</v>
+        <v>878.9123367826148</v>
       </c>
       <c r="F32" t="n">
-        <v>948.8168854676551</v>
+        <v>469.072365068572</v>
       </c>
       <c r="G32" t="n">
-        <v>558.9237552812579</v>
+        <v>469.072365068572</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>132.2639653557229</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
@@ -6725,25 +6725,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y32" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>340.6311904264589</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C33" t="n">
-        <v>340.6311904264589</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D33" t="n">
-        <v>191.6967807652077</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F33" t="n">
         <v>32.45932575975219</v>
@@ -6780,22 +6780,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278474</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321104</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>1052.635966853259</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1301.389380937221</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6810,19 +6810,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U33" t="n">
-        <v>1413.847791376958</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V33" t="n">
-        <v>1178.695683145215</v>
+        <v>1499.683270399457</v>
       </c>
       <c r="W33" t="n">
-        <v>924.4583264170137</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X33" t="n">
-        <v>716.6068262114809</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y33" t="n">
-        <v>508.846527446527</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975219</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C34" t="n">
         <v>32.45932575975219</v>
@@ -6877,31 +6877,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>296.5701361642185</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T34" t="n">
-        <v>296.5701361642185</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U34" t="n">
-        <v>296.5701361642185</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V34" t="n">
-        <v>296.5701361642185</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W34" t="n">
-        <v>296.5701361642185</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X34" t="n">
-        <v>296.5701361642185</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.77755702068842</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>880.0583007416835</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C35" t="n">
-        <v>880.0583007416835</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D35" t="n">
-        <v>880.0583007416835</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E35" t="n">
-        <v>880.0583007416835</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F35" t="n">
-        <v>880.0583007416835</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6938,10 +6938,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941458</v>
@@ -6962,25 +6962,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1481.853510035275</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1481.853510035275</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1481.853510035275</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>1150.790622691704</v>
       </c>
       <c r="W35" t="n">
-        <v>1270.197632717495</v>
+        <v>1150.790622691704</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.197632717495</v>
+        <v>777.3248644306245</v>
       </c>
       <c r="Y35" t="n">
-        <v>880.0583007416835</v>
+        <v>777.3248644306245</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975219</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E36" t="n">
         <v>32.45932575975219</v>
@@ -7017,22 +7017,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497703</v>
+        <v>636.3836421851988</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026704</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1361.08130563669</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1603.325054840698</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7041,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1472.054082871272</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1271.151073976766</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894784</v>
+        <v>1271.151073976766</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577356</v>
+        <v>1035.998965745023</v>
       </c>
       <c r="W36" t="n">
-        <v>455.571351529534</v>
+        <v>781.7616090168215</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240011</v>
+        <v>573.9101088112886</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904721</v>
+        <v>366.1498100463347</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="G37" t="n">
-        <v>191.8257232724346</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="I37" t="n">
         <v>32.45932575975219</v>
@@ -7129,16 +7129,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>759.6875413069145</v>
+        <v>846.2271159476763</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>477.2645990072646</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>118.9989004005141</v>
       </c>
       <c r="E38" t="n">
         <v>32.45932575975219</v>
@@ -7172,52 +7172,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S38" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T38" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U38" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W38" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.287381371036</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>222.0882603251556</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C39" t="n">
-        <v>222.0882603251556</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D39" t="n">
-        <v>222.0882603251556</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E39" t="n">
-        <v>222.0882603251556</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F39" t="n">
-        <v>222.0882603251556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
         <v>222.0882603251556</v>
@@ -7251,52 +7251,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N39" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1041.067504547453</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V39" t="n">
-        <v>805.9153963157105</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="W39" t="n">
-        <v>805.9153963157105</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="X39" t="n">
-        <v>598.0638961101777</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y39" t="n">
-        <v>390.3035973452237</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1393.858948907497</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C40" t="n">
-        <v>1393.858948907497</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D40" t="n">
-        <v>1393.858948907497</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E40" t="n">
-        <v>1393.858948907497</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F40" t="n">
-        <v>1393.858948907497</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
         <v>1302.533129726572</v>
@@ -7360,22 +7360,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>1393.858948907497</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>1393.858948907497</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>1393.858948907497</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>1393.858948907497</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>1393.858948907497</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>1393.858948907497</v>
+        <v>1402.173708844079</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>369.2677254726013</v>
+        <v>880.0583007416835</v>
       </c>
       <c r="C41" t="n">
-        <v>369.2677254726013</v>
+        <v>880.0583007416835</v>
       </c>
       <c r="D41" t="n">
-        <v>369.2677254726013</v>
+        <v>880.0583007416835</v>
       </c>
       <c r="E41" t="n">
-        <v>369.2677254726013</v>
+        <v>494.2700481434393</v>
       </c>
       <c r="F41" t="n">
-        <v>369.2677254726013</v>
+        <v>84.43007642939648</v>
       </c>
       <c r="G41" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975219</v>
@@ -7409,16 +7409,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1485.641470979607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1485.641470979607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1485.641470979607</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1132.872815709493</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X41" t="n">
-        <v>759.4070574484131</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.2677254726013</v>
+        <v>880.0583007416835</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>625.5781216404037</v>
+        <v>583.8975598600312</v>
       </c>
       <c r="C42" t="n">
-        <v>625.5781216404037</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="D42" t="n">
-        <v>476.6437119791524</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E42" t="n">
-        <v>317.4062569736969</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F42" t="n">
-        <v>170.8716990005819</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
@@ -7491,22 +7491,22 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313473</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1102.878768387388</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7515,25 +7515,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1313.366060425819</v>
+        <v>1167.724695850586</v>
       </c>
       <c r="V42" t="n">
-        <v>1078.213952194077</v>
+        <v>1167.724695850586</v>
       </c>
       <c r="W42" t="n">
-        <v>823.9765954658751</v>
+        <v>1167.724695850586</v>
       </c>
       <c r="X42" t="n">
-        <v>823.9765954658751</v>
+        <v>959.8731956450531</v>
       </c>
       <c r="Y42" t="n">
-        <v>793.7934586604717</v>
+        <v>752.1128968800992</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E43" t="n">
         <v>32.45932575975219</v>
@@ -7588,31 +7588,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>326.2514937788808</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C44" t="n">
-        <v>326.2514937788808</v>
+        <v>1254.003771047198</v>
       </c>
       <c r="D44" t="n">
-        <v>326.2514937788808</v>
+        <v>895.7380724404472</v>
       </c>
       <c r="E44" t="n">
-        <v>326.2514937788808</v>
+        <v>509.949819842203</v>
       </c>
       <c r="F44" t="n">
-        <v>326.2514937788808</v>
+        <v>509.949819842203</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>509.949819842203</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>173.1414201293539</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7649,10 +7649,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7661,10 +7661,10 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
@@ -7676,22 +7676,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1069.159481024807</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>716.3908257546925</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>716.3908257546925</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>326.2514937788808</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>247.7198513240011</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C45" t="n">
-        <v>247.7198513240011</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D45" t="n">
-        <v>247.7198513240011</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E45" t="n">
-        <v>247.7198513240011</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>247.7198513240011</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
         <v>222.0882603251556</v>
@@ -7725,52 +7725,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668621</v>
+        <v>715.6251469227672</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1117.3093031997</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577356</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="W45" t="n">
-        <v>455.571351529534</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240011</v>
+        <v>1247.612552740242</v>
       </c>
       <c r="Y45" t="n">
-        <v>247.7198513240011</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C46" t="n">
-        <v>330.489058754481</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E46" t="n">
         <v>32.45932575975219</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,10 +8778,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>433.7163775977507</v>
       </c>
       <c r="O12" t="n">
-        <v>142.0020905588914</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026377</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>391.3774455544767</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304798</v>
+        <v>433.716377597751</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479948</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,13 +9489,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>447.9178485742653</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>99.73813450275541</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>296.5127271079358</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304796</v>
+        <v>174.1879045256803</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>117.9172225363091</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126416</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>380.7598033349565</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,16 +10428,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>119.5777639440803</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>74.46639351210624</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>63.84875129258599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>262.4396299206664</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23276,7 +23276,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>94.43611291697668</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,10 +23337,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>92.81411394483771</v>
       </c>
       <c r="D12" t="n">
-        <v>77.31676252264333</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23352,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23431,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>120.5819502228691</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23495,10 +23495,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>347.9332632358633</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>1.1344737448091</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23589,7 +23589,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -23634,10 +23634,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>202.7107073159003</v>
+        <v>88.23589893206078</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082894</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23750,7 +23750,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>56.79311626624464</v>
       </c>
       <c r="S17" t="n">
-        <v>70.41439893299199</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,25 +23811,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.5993086532565</v>
       </c>
       <c r="S18" t="n">
-        <v>159.1079591185651</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>85.60909898014351</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>59.32005692394495</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23978,16 +23978,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>212.5223835469084</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>42.71843487022036</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>118.8251523786029</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24060,13 +24060,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>24.72030225534071</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,16 +24096,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>72.9172304492661</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24178,7 +24178,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.9015159566401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24260,7 +24260,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>109.6588881535608</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,10 +24269,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>106.1547911609873</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>50.94920160947056</v>
       </c>
       <c r="G24" t="n">
-        <v>14.97806209615118</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>41.7007232855412</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24418,10 +24418,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>227.5039858756092</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>181.0931138146078</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24531,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>7.652314433785136</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>225.4509231461387</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>21.5793981957992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>40.3449584336566</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,7 +24649,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24680,16 +24680,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>209.3646901732843</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24728,22 +24728,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>88.69384126851432</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24768,16 +24768,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>14.97806209615096</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>170.5242485185713</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,10 +24886,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>120.7272614763989</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.70072328554139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24920,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G32" t="n">
-        <v>28.71930524600072</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>88.95287631055891</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24965,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24996,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25050,10 +25050,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>18.89332914335174</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>110.7503997371548</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.9469312336104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>61.15781688571526</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>226.8162656893113</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>96.79030412471252</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>55.89126366183567</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25211,16 +25211,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.1079591185653</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,13 +25281,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>97.00771412451776</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>2.104484466239654</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
-        <v>147.5019580580808</v>
+        <v>74.1401982971428</v>
       </c>
       <c r="J37" t="n">
         <v>74.67247646141476</v>
@@ -25369,7 +25369,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>296.2561911779075</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.18150745134363</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25470,19 +25470,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>95.14562117739501</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>176.9363649428772</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>72.9172304492661</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>69.04353215175588</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25570,7 +25570,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25600,7 +25600,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>363.2624609675861</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>197.4205979308148</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25707,16 +25707,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25725,7 +25725,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>220.5362405674965</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.801390339955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>39.51921291389802</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
@@ -25837,7 +25837,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>191.0562187779268</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>311.6187273021666</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>48.48419608466423</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>111.6529744195644</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>116.8429368463966</v>
       </c>
     </row>
     <row r="46">
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>136.7968536786434</v>
+        <v>21.5793981957992</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421346</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>469983.5735421346</v>
+        <v>469983.5735421345</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421346</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421347</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469983.5735421347</v>
+        <v>469983.5735421344</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421346</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469983.5735421347</v>
+        <v>469983.5735421348</v>
       </c>
     </row>
   </sheetData>
@@ -26320,37 +26320,37 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>277717.5661839885</v>
+      </c>
+      <c r="F2" t="n">
         <v>277717.5661839886</v>
-      </c>
-      <c r="F2" t="n">
-        <v>277717.5661839885</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839884</v>
       </c>
       <c r="H2" t="n">
+        <v>277717.5661839885</v>
+      </c>
+      <c r="I2" t="n">
         <v>277717.5661839886</v>
-      </c>
-      <c r="I2" t="n">
-        <v>277717.5661839885</v>
       </c>
       <c r="J2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="K2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
-        <v>277717.5661839884</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="M2" t="n">
-        <v>277717.5661839887</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="N2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="O2" t="n">
-        <v>277717.5661839888</v>
+        <v>277717.5661839885</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839886</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282393.6455117097</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
-        <v>282393.6455117097</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>282393.6455117096</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="F4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="G4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="H4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="I4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="J4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="K4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="L4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="M4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="N4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="O4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="P4" t="n">
-        <v>3643.493181240739</v>
+        <v>305.9587030485383</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122232.8046047652</v>
+        <v>125501.3899843115</v>
       </c>
       <c r="C6" t="n">
-        <v>203002.2361363127</v>
+        <v>206270.821515859</v>
       </c>
       <c r="D6" t="n">
-        <v>203002.2361363129</v>
+        <v>206270.8215158592</v>
       </c>
       <c r="E6" t="n">
-        <v>79269.54996374359</v>
+        <v>82607.08444193561</v>
       </c>
       <c r="F6" t="n">
-        <v>246209.7200889902</v>
+        <v>249547.2545671825</v>
       </c>
       <c r="G6" t="n">
-        <v>246209.7200889901</v>
+        <v>249547.2545671824</v>
       </c>
       <c r="H6" t="n">
-        <v>246209.7200889903</v>
+        <v>249547.2545671824</v>
       </c>
       <c r="I6" t="n">
-        <v>246209.7200889902</v>
+        <v>249547.2545671825</v>
       </c>
       <c r="J6" t="n">
-        <v>183149.7774898839</v>
+        <v>186487.3119680762</v>
       </c>
       <c r="K6" t="n">
-        <v>246209.7200889903</v>
+        <v>249547.2545671824</v>
       </c>
       <c r="L6" t="n">
-        <v>246209.7200889901</v>
+        <v>249547.2545671824</v>
       </c>
       <c r="M6" t="n">
-        <v>205159.0222265425</v>
+        <v>208496.5567047345</v>
       </c>
       <c r="N6" t="n">
-        <v>246209.7200889902</v>
+        <v>249547.2545671824</v>
       </c>
       <c r="O6" t="n">
-        <v>246209.7200889905</v>
+        <v>249547.2545671824</v>
       </c>
       <c r="P6" t="n">
-        <v>246209.7200889903</v>
+        <v>249547.2545671825</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26771,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26805,10 +26805,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>174.7087999633573</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>352.8864698128427</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,13 +27424,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>114.2282345275697</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>101.6909038562026</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>182.7391517647067</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>81.69582137110592</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16.75691611070829</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>191.8237676856662</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.0260875537777</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,19 +27941,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>55.46840431911383</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31850,7 +31850,7 @@
         <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>75.0101950410059</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32011,25 +32011,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32078,22 +32078,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975588</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
         <v>40.24363958326609</v>
@@ -32102,7 +32102,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32181,7 +32181,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32406,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32415,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>42.84432820164855</v>
       </c>
       <c r="L21" t="n">
         <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>40.2436395832661</v>
@@ -33500,22 +33500,22 @@
         <v>29.78587961321932</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253946</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864767</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975593</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>75.0101950410059</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601702</v>
+        <v>29.99764417805525</v>
       </c>
       <c r="Q33" t="n">
         <v>40.2436395832661</v>
@@ -33746,7 +33746,7 @@
         <v>79.88163340864767</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975593</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O36" t="n">
         <v>75.0101950410059</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J38" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33907,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33925,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975593</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O39" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34044,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34220,10 +34220,10 @@
         <v>79.8816334086477</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100591</v>
+        <v>29.38419829520291</v>
       </c>
       <c r="P42" t="n">
         <v>60.20229453601704</v>
@@ -34448,25 +34448,25 @@
         <v>29.78587961321933</v>
       </c>
       <c r="K45" t="n">
-        <v>50.90881248409525</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>68.45318092253947</v>
       </c>
       <c r="M45" t="n">
-        <v>79.8816334086477</v>
+        <v>65.75630974914145</v>
       </c>
       <c r="N45" t="n">
-        <v>81.99586254975594</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O45" t="n">
         <v>75.01019504100591</v>
       </c>
       <c r="P45" t="n">
-        <v>60.20229453601704</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.24363958326611</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>19.57424965436762</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,13 +34781,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35255,10 +35255,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35498,10 +35498,10 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144174</v>
       </c>
       <c r="O12" t="n">
-        <v>74.41604115545286</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35656,7 +35656,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35665,7 +35665,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>329.125045041106</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144177</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35805,16 +35805,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35902,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144174</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>169.4681262398682</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>398.571999040688</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>226.4115282506011</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921029</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>30.98459604604533</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
@@ -36683,16 +36683,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790642</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36920,7 +36920,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>331.4139538013791</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>226.4115282506012</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366293</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>214.4860054036622</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
@@ -37400,10 +37400,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>19.8396294413249</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37561,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
@@ -37637,10 +37637,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>170.3630375661004</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37713,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37859,25 +37859,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>12.21399299873562</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>280.650273127488</v>
       </c>
       <c r="P42" t="n">
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366293</v>
+        <v>389.327339577123</v>
       </c>
       <c r="N45" t="n">
-        <v>14.50290175900862</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1738008.965401138</v>
+        <v>1682231.443258533</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>505809.5722791892</v>
+        <v>381417.3404720773</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6684625.454516198</v>
+        <v>6684625.454516197</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="V2" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>116.8740818208393</v>
+        <v>86.12049602088146</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>222.1008216780093</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>107.0462203894556</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>237.3811362441418</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>123.3727817513256</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.20823965347047</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>275.3492021643687</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>66.99844547665367</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>25.37527508885681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>73.36175976093797</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>97.45272887403915</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>127.2563964367027</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>87.30283807112622</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>140.9445834237648</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>31.46288204362235</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>140.979167903347</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>210.3084152197367</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>59.93139537243139</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9588595871327</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.09960069274271</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>147.3647965035349</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>35.71790655749977</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>96.4226099658009</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>324.0607648641353</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>156.9166157229682</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>43.10070109604758</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.6221850809707</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>281.6324150430729</v>
+        <v>327.3142252700988</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,19 +2642,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>17.40032196983699</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>65.66285474396749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7727335375553</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>309.4220425951302</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>180.1755314573207</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2876,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>46.94271415388144</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>32.90473339009647</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>261.4697023004216</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>20.05209876101992</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>97.12904056286493</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>38.65010512046131</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>301.8912769522268</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>42.44128741270555</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -3395,7 +3395,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>48.79235057636067</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>61.89398566704774</v>
       </c>
     </row>
     <row r="37">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>38.9764047481749</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>249.6306326989079</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>41.7471284716177</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>8.170411632321679</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>203.1940597208652</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>12.58838388982756</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>157.7727335375553</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>102.1810168719382</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>287.0328539434443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.33130819079416</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>81.1275227326783</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3878,16 +3878,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>106.0890042129122</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>56.78658728852928</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>162.6046729685537</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>74.92755848587066</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>37.62458985616086</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4115,13 +4115,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>13.65637930133918</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>290.2572196227447</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4421,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W3" t="n">
-        <v>492.3847606029253</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X3" t="n">
-        <v>374.3301325010674</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.5698337361135</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>509.4769954460863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460863</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W5" t="n">
-        <v>266.0282188019862</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>754.7601307206374</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>570.0533175774684</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>738.2686545975364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.5649960805454</v>
+        <v>738.230242413013</v>
       </c>
       <c r="C11" t="n">
-        <v>800.5649960805454</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D11" t="n">
-        <v>442.2992974737949</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E11" t="n">
-        <v>442.2992974737949</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F11" t="n">
-        <v>442.2992974737949</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
         <v>32.45932575975218</v>
@@ -5041,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5068,25 +5068,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1564.170086317437</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1564.170086317437</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1564.170086317437</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V11" t="n">
-        <v>1564.170086317437</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W11" t="n">
-        <v>1564.170086317437</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X11" t="n">
-        <v>1190.704328056357</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="Y11" t="n">
-        <v>800.5649960805454</v>
+        <v>738.230242413013</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.0882603251556</v>
+        <v>260.7291119938702</v>
       </c>
       <c r="C12" t="n">
-        <v>222.0882603251556</v>
+        <v>260.7291119938702</v>
       </c>
       <c r="D12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
@@ -5132,40 +5132,40 @@
         <v>855.0325800923007</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609043</v>
+        <v>1199.553235729919</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1555.291090536444</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1555.291090536444</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1354.388081641937</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894781</v>
+        <v>1126.185414179415</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577354</v>
+        <v>891.0333059476727</v>
       </c>
       <c r="W12" t="n">
-        <v>455.5713515295337</v>
+        <v>636.795949219471</v>
       </c>
       <c r="X12" t="n">
-        <v>247.7198513240009</v>
+        <v>428.9444490139382</v>
       </c>
       <c r="Y12" t="n">
-        <v>222.0882603251556</v>
+        <v>428.9444490139382</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5235,16 +5235,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1088.658125761969</v>
+        <v>883.5977926533735</v>
       </c>
       <c r="C14" t="n">
-        <v>1088.658125761969</v>
+        <v>883.5977926533735</v>
       </c>
       <c r="D14" t="n">
-        <v>730.3924271552182</v>
+        <v>883.5977926533735</v>
       </c>
       <c r="E14" t="n">
-        <v>730.3924271552182</v>
+        <v>497.8095400551293</v>
       </c>
       <c r="F14" t="n">
-        <v>320.5524554411755</v>
+        <v>497.8095400551293</v>
       </c>
       <c r="G14" t="n">
-        <v>320.5524554411755</v>
+        <v>497.8095400551293</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>161.0011403422802</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>1088.658125761969</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X14" t="n">
-        <v>1088.658125761969</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y14" t="n">
-        <v>1088.658125761969</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.6440106800817</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C15" t="n">
-        <v>120.6440106800817</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D15" t="n">
-        <v>120.6440106800817</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E15" t="n">
-        <v>120.6440106800817</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384403</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M15" t="n">
-        <v>679.275295675209</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N15" t="n">
-        <v>1023.795951312827</v>
+        <v>988.3144730957144</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1311.327980270273</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5387,22 +5387,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1422.063279093102</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V15" t="n">
-        <v>958.708503398838</v>
+        <v>1387.814179755867</v>
       </c>
       <c r="W15" t="n">
-        <v>704.4711466706365</v>
+        <v>1245.445913671256</v>
       </c>
       <c r="X15" t="n">
-        <v>496.6196464651036</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y15" t="n">
-        <v>288.8593477001497</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>329.4659126699983</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>329.4659126699983</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>701.3269551836285</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="C17" t="n">
-        <v>701.3269551836285</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="D17" t="n">
-        <v>701.3269551836285</v>
+        <v>844.3880699286501</v>
       </c>
       <c r="E17" t="n">
-        <v>701.3269551836285</v>
+        <v>844.3880699286501</v>
       </c>
       <c r="F17" t="n">
-        <v>701.3269551836285</v>
+        <v>434.5480982146074</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812577</v>
+        <v>434.5480982146074</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
@@ -5515,16 +5515,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T17" t="n">
-        <v>1286.226725594945</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U17" t="n">
-        <v>1032.389842527199</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V17" t="n">
-        <v>701.3269551836285</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W17" t="n">
-        <v>701.3269551836285</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X17" t="n">
-        <v>701.3269551836285</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="Y17" t="n">
-        <v>701.3269551836285</v>
+        <v>1202.653768535401</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>329.1174114232695</v>
+        <v>267.4491180433351</v>
       </c>
       <c r="C18" t="n">
-        <v>329.1174114232695</v>
+        <v>92.99608876220813</v>
       </c>
       <c r="D18" t="n">
-        <v>329.1174114232695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E18" t="n">
-        <v>329.1174114232695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F18" t="n">
-        <v>329.1174114232695</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>172.6527292199793</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>470.3844842016425</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>869.8026208059055</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
@@ -5618,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U18" t="n">
-        <v>1026.358376588747</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V18" t="n">
-        <v>791.2062683570039</v>
+        <v>1105.513610762092</v>
       </c>
       <c r="W18" t="n">
-        <v>536.9689116288023</v>
+        <v>851.2762540338899</v>
       </c>
       <c r="X18" t="n">
-        <v>329.1174114232695</v>
+        <v>643.4247538283571</v>
       </c>
       <c r="Y18" t="n">
-        <v>329.1174114232695</v>
+        <v>435.6644550634032</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975218</v>
@@ -5700,25 +5700,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>139.6199360758254</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.6199360758254</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>927.8862722216695</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="C20" t="n">
-        <v>558.9237552812579</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="D20" t="n">
-        <v>558.9237552812579</v>
+        <v>779.107697186644</v>
       </c>
       <c r="E20" t="n">
-        <v>558.9237552812579</v>
+        <v>779.107697186644</v>
       </c>
       <c r="F20" t="n">
-        <v>558.9237552812579</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
@@ -5761,7 +5761,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1555.188913550495</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1555.188913550495</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T20" t="n">
-        <v>1555.188913550495</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U20" t="n">
-        <v>1301.352030482749</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="V20" t="n">
-        <v>1301.352030482749</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="W20" t="n">
-        <v>1301.352030482749</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="X20" t="n">
-        <v>927.8862722216695</v>
+        <v>1137.373395793395</v>
       </c>
       <c r="Y20" t="n">
-        <v>927.8862722216695</v>
+        <v>1137.373395793395</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.2857496982313</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384402</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M21" t="n">
-        <v>546.7891136313474</v>
+        <v>777.6541821393488</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1444.17215216531</v>
       </c>
       <c r="T21" t="n">
-        <v>1455.464052945775</v>
+        <v>1444.17215216531</v>
       </c>
       <c r="U21" t="n">
-        <v>1227.261385483253</v>
+        <v>1215.969484702788</v>
       </c>
       <c r="V21" t="n">
-        <v>1227.261385483253</v>
+        <v>980.8173764710452</v>
       </c>
       <c r="W21" t="n">
-        <v>1227.261385483253</v>
+        <v>726.5800197428437</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.261385483253</v>
+        <v>518.7285195373108</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.501086718299</v>
+        <v>310.968220772357</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.4540224594199</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>140.4540224594199</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>140.4540224594199</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>140.4540224594199</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>140.4540224594199</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>140.4540224594199</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
         <v>32.45932575975218</v>
@@ -5913,49 +5913,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191283</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285708</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.24660160295</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.4540224594199</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>896.7318744564152</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="C23" t="n">
-        <v>527.7693575160035</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="D23" t="n">
-        <v>527.7693575160035</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="E23" t="n">
-        <v>527.7693575160035</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F23" t="n">
-        <v>527.7693575160035</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G23" t="n">
-        <v>527.7693575160035</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9609578031544</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
@@ -5998,7 +5998,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6022,19 +6022,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X23" t="n">
-        <v>896.7318744564152</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="Y23" t="n">
-        <v>896.7318744564152</v>
+        <v>1369.129404919863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>666.272646544556</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
@@ -6071,49 +6071,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>61.20822116384403</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9399761455072</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M24" t="n">
-        <v>758.3581127497702</v>
+        <v>777.6541821393488</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894781</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577354</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W24" t="n">
-        <v>666.272646544556</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X24" t="n">
-        <v>666.272646544556</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y24" t="n">
-        <v>666.272646544556</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
         <v>32.45932575975218</v>
@@ -6174,25 +6174,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.5925424806035</v>
+        <v>772.9197270395514</v>
       </c>
       <c r="C26" t="n">
-        <v>506.5925424806035</v>
+        <v>772.9197270395514</v>
       </c>
       <c r="D26" t="n">
-        <v>506.5925424806035</v>
+        <v>772.9197270395514</v>
       </c>
       <c r="E26" t="n">
-        <v>506.5925424806035</v>
+        <v>772.9197270395514</v>
       </c>
       <c r="F26" t="n">
-        <v>506.5925424806035</v>
+        <v>772.9197270395514</v>
       </c>
       <c r="G26" t="n">
-        <v>506.5925424806035</v>
+        <v>363.0797553255086</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6256,22 +6256,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W26" t="n">
-        <v>1270.197632717495</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="X26" t="n">
-        <v>896.7318744564152</v>
+        <v>772.9197270395514</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.5925424806035</v>
+        <v>772.9197270395514</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>181.3937354210034</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="C27" t="n">
-        <v>181.3937354210034</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975218</v>
+        <v>347.6852368038526</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>188.4477817983971</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>188.4477817983971</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>50.03540855756734</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>50.03540855756734</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1190.717019112288</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O27" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577354</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W27" t="n">
-        <v>455.5713515295337</v>
+        <v>704.4711466706367</v>
       </c>
       <c r="X27" t="n">
-        <v>247.7198513240009</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="Y27" t="n">
-        <v>181.3937354210034</v>
+        <v>496.6196464651039</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>534.6628733412674</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C29" t="n">
-        <v>222.1153555684087</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D29" t="n">
-        <v>222.1153555684087</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E29" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1311.402045381201</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U29" t="n">
-        <v>1311.402045381201</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="V29" t="n">
-        <v>1311.402045381201</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="W29" t="n">
-        <v>1311.402045381201</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.402045381201</v>
+        <v>1218.226882047851</v>
       </c>
       <c r="Y29" t="n">
-        <v>921.2627134053891</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>957.7415918977861</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>783.2885626166591</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>634.3541529554078</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>475.1166979499523</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>328.5821399768373</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>190.1697667360075</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>79.87620874347081</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384403</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L30" t="n">
-        <v>357.8773878315566</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M30" t="n">
-        <v>678.2127073612584</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N30" t="n">
-        <v>1022.733362998876</v>
+        <v>1052.635966853259</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1301.389380937221</v>
       </c>
       <c r="P30" t="n">
         <v>1513.730526286846</v>
@@ -6572,22 +6572,22 @@
         <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.568727888341</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V30" t="n">
-        <v>1541.568727888341</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W30" t="n">
-        <v>1541.568727888341</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X30" t="n">
-        <v>1333.717227682808</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y30" t="n">
-        <v>1125.956928917854</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F31" t="n">
         <v>32.45932575975218</v>
@@ -6642,31 +6642,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>296.5701361642185</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="T31" t="n">
-        <v>296.5701361642185</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>442.2992974737949</v>
+        <v>949.343571115571</v>
       </c>
       <c r="C32" t="n">
-        <v>442.2992974737949</v>
+        <v>580.3810541751592</v>
       </c>
       <c r="D32" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E32" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011318</v>
@@ -6709,7 +6709,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6727,25 +6727,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1602.711642774458</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1379.967723155225</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U32" t="n">
-        <v>1126.13084008748</v>
+        <v>1302.112226385685</v>
       </c>
       <c r="V32" t="n">
-        <v>795.067952743909</v>
+        <v>1302.112226385685</v>
       </c>
       <c r="W32" t="n">
-        <v>442.2992974737949</v>
+        <v>949.343571115571</v>
       </c>
       <c r="X32" t="n">
-        <v>442.2992974737949</v>
+        <v>949.343571115571</v>
       </c>
       <c r="Y32" t="n">
-        <v>442.2992974737949</v>
+        <v>949.343571115571</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>435.5817998289709</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>261.1287705478438</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D33" t="n">
-        <v>261.1287705478438</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>261.1287705478438</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>261.1287705478438</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
@@ -6782,7 +6782,7 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5657812216814</v>
+        <v>227.3557567412979</v>
       </c>
       <c r="L33" t="n">
         <v>457.318862609647</v>
@@ -6806,25 +6806,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U33" t="n">
-        <v>1254.561044051268</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V33" t="n">
-        <v>1019.408935819526</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W33" t="n">
-        <v>1019.408935819526</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X33" t="n">
-        <v>811.5574356139928</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y33" t="n">
-        <v>603.7971368490389</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="34">
@@ -6885,25 +6885,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1232.826956011798</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C35" t="n">
-        <v>863.864439071386</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D35" t="n">
-        <v>863.864439071386</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E35" t="n">
-        <v>863.864439071386</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F35" t="n">
-        <v>863.864439071386</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812579</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H35" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>617.753998124084</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.966287987609</v>
+        <v>264.9853428539698</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.966287987609</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="Y35" t="n">
-        <v>1232.826956011798</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>740.9541542535677</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C36" t="n">
-        <v>566.5011249724407</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>417.5667153111894</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>258.3292603057339</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5657812216814</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L36" t="n">
-        <v>457.3188626096472</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>777.654182139349</v>
+        <v>679.275295675209</v>
       </c>
       <c r="N36" t="n">
-        <v>1122.174837776967</v>
+        <v>1023.795951312827</v>
       </c>
       <c r="O36" t="n">
-        <v>1370.928251860929</v>
+        <v>1272.549365396789</v>
       </c>
       <c r="P36" t="n">
-        <v>1553.57172947428</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7043,25 +7043,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V36" t="n">
-        <v>1374.066492846507</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="W36" t="n">
-        <v>1324.781290244122</v>
+        <v>1052.179262928397</v>
       </c>
       <c r="X36" t="n">
-        <v>1116.92979003859</v>
+        <v>1052.179262928397</v>
       </c>
       <c r="Y36" t="n">
-        <v>909.1694912736357</v>
+        <v>989.6600854869342</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7134,13 +7134,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.82943156598947</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1148.070214127056</v>
+        <v>990.2210258892019</v>
       </c>
       <c r="C38" t="n">
-        <v>779.107697186644</v>
+        <v>990.2210258892019</v>
       </c>
       <c r="D38" t="n">
-        <v>779.107697186644</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E38" t="n">
-        <v>779.107697186644</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F38" t="n">
-        <v>779.107697186644</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U38" t="n">
-        <v>1148.070214127056</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V38" t="n">
-        <v>1148.070214127056</v>
+        <v>990.2210258892019</v>
       </c>
       <c r="W38" t="n">
-        <v>1148.070214127056</v>
+        <v>990.2210258892019</v>
       </c>
       <c r="X38" t="n">
-        <v>1148.070214127056</v>
+        <v>990.2210258892019</v>
       </c>
       <c r="Y38" t="n">
-        <v>1148.070214127056</v>
+        <v>990.2210258892019</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>504.5621832871644</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="C39" t="n">
-        <v>330.1091540060374</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="D39" t="n">
-        <v>330.1091540060374</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E39" t="n">
-        <v>170.8716990005819</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F39" t="n">
-        <v>170.8716990005819</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497702</v>
+        <v>787.1981282902017</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.878768387388</v>
+        <v>1131.71878392782</v>
       </c>
       <c r="O39" t="n">
-        <v>1425.892275561946</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1614.71334694486</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1447.211111903026</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1246.308103008519</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894781</v>
+        <v>1018.105435545998</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577354</v>
+        <v>782.9533273142549</v>
       </c>
       <c r="W39" t="n">
-        <v>504.5621832871644</v>
+        <v>528.7159705860533</v>
       </c>
       <c r="X39" t="n">
-        <v>504.5621832871644</v>
+        <v>528.7159705860533</v>
       </c>
       <c r="Y39" t="n">
-        <v>504.5621832871644</v>
+        <v>528.7159705860533</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="C40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="D40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="E40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="F40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.966287987609</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.966287987609</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.966287987609</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.966287987609</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="W40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="X40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="Y40" t="n">
-        <v>1463.599890474927</v>
+        <v>181.4512025860964</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>862.9006896624076</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="C41" t="n">
-        <v>493.9381727219958</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="D41" t="n">
-        <v>135.6724741152453</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975218</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>322.3915014602009</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I41" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.500529726529</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y41" t="n">
-        <v>1249.500529726529</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.6600854869342</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L42" t="n">
-        <v>534.6972605625989</v>
+        <v>262.4224316281013</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668618</v>
+        <v>643.7938174580967</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>988.3144730957147</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1311.327980270273</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V42" t="n">
-        <v>1026.358376588747</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W42" t="n">
-        <v>1026.358376588747</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X42" t="n">
-        <v>1026.358376588747</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y42" t="n">
-        <v>1026.358376588747</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1515.805677671536</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1294.179012144411</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="T43" t="n">
-        <v>1294.179012144411</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="U43" t="n">
-        <v>1294.179012144411</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="V43" t="n">
-        <v>1294.179012144411</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="W43" t="n">
-        <v>1294.179012144411</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="X43" t="n">
-        <v>1294.179012144411</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>565.6689871128444</v>
+        <v>89.81951494008479</v>
       </c>
       <c r="C44" t="n">
-        <v>196.7064701724327</v>
+        <v>89.81951494008479</v>
       </c>
       <c r="D44" t="n">
-        <v>196.7064701724327</v>
+        <v>89.81951494008479</v>
       </c>
       <c r="E44" t="n">
-        <v>196.7064701724327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
-        <v>196.7064701724327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>196.7064701724327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>196.7064701724327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7675,25 +7675,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V44" t="n">
-        <v>1291.903400644038</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W44" t="n">
-        <v>939.1347453739243</v>
+        <v>849.8851132652865</v>
       </c>
       <c r="X44" t="n">
-        <v>565.6689871128444</v>
+        <v>476.4193550042066</v>
       </c>
       <c r="Y44" t="n">
-        <v>565.6689871128444</v>
+        <v>476.4193550042066</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>455.5713515295337</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C45" t="n">
-        <v>455.5713515295337</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D45" t="n">
-        <v>455.5713515295337</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E45" t="n">
-        <v>296.3338965240782</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F45" t="n">
-        <v>149.7993385509632</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
@@ -7730,49 +7730,49 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5657812216814</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L45" t="n">
-        <v>416.5288870900306</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>789.8852400133628</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N45" t="n">
-        <v>1191.569396290296</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O45" t="n">
-        <v>1440.322810374258</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577354</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="W45" t="n">
-        <v>455.5713515295337</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="X45" t="n">
-        <v>455.5713515295337</v>
+        <v>986.0091114250479</v>
       </c>
       <c r="Y45" t="n">
-        <v>455.5713515295337</v>
+        <v>986.0091114250479</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.82943156598947</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="C46" t="n">
-        <v>71.82943156598947</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="D46" t="n">
-        <v>71.82943156598947</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="E46" t="n">
-        <v>71.82943156598947</v>
+        <v>46.25364828635742</v>
       </c>
       <c r="F46" t="n">
-        <v>71.82943156598947</v>
+        <v>46.25364828635742</v>
       </c>
       <c r="G46" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -7830,28 +7830,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="W46" t="n">
-        <v>71.82943156598947</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="X46" t="n">
-        <v>71.82943156598947</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.82943156598947</v>
+        <v>194.1667418687505</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>336.0654004840836</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>414.3711685278524</v>
       </c>
       <c r="O15" t="n">
-        <v>317.7788027064806</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>199.5028366479762</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>281.0382923213828</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>251.9990040344214</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>351.7205150479949</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9965,10 +9965,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>337.5786953411716</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>247.3143048004605</v>
       </c>
       <c r="P27" t="n">
         <v>73.77211287831324</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>162.4976186610405</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>145.8446138423421</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>472.1208837156331</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23308,25 +23308,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>137.3846741811761</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>110.8887364916849</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,7 +23354,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>13.58513902162184</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>180.3074206884475</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>72.05928826199327</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>235.9875868416814</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>60.50307307386721</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23557,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,16 +23576,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>57.76637432225766</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -23627,16 +23627,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>110.7503997371548</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>255.0601162929686</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>273.7343362271869</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>123.1319004959839</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>87.51367019220737</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>31.06938992128877</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>61.63766533429788</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23940,7 +23940,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23949,10 +23949,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>45.75608565295475</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>103.9337177335335</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>136.990592430816</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>69.40460272561485</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>52.96246827112421</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
@@ -24174,10 +24174,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>59.320056923945</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>57.86960520812653</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>30.84285378760168</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>208.594282064872</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>2.104484466239711</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24414,7 +24414,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4103988718534</v>
+        <v>119.6206511761246</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H26" t="n">
-        <v>51.80790067264775</v>
+        <v>6.126090445621799</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>61.14170083730104</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>140.0198410333369</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>2.104484466239882</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24657,13 +24657,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>55.85084917587739</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>71.1229827797477</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>31.5993086532566</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24812,16 +24812,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>165.9892454154652</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>185.7660064565879</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>24.8349101572739</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24937,7 +24937,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>175.5408150736266</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>154.1694736742035</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>98.37814438796013</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,19 +25046,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.91723044926619</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>112.8222271783071</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>327.2898132657635</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -25292,16 +25292,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>202.9026325845589</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>143.7887101102566</v>
       </c>
     </row>
     <row r="37">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.667881538160515</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>286.0051299985172</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>72.41317286595384</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>48.50092344005441</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141476</v>
@@ -25596,10 +25596,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>206.8220149820258</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>128.7502647990357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>279.7493532003235</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>46.40746177227635</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>130.2018754590732</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.69968995873745</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25833,10 +25833,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>59.3200569239453</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>112.4956491391823</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>325.1437827837325</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25885,7 +25885,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>25.15479654201619</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>91.60562516399668</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>99.40365965226059</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,13 +26003,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>154.0702902458712</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>108.5255533099059</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26070,7 +26070,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469983.5735421348</v>
+        <v>469983.5735421343</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469983.5735421346</v>
+        <v>469983.5735421348</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421342</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>469983.5735421347</v>
+        <v>469983.5735421342</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>469983.5735421347</v>
+        <v>469983.5735421342</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421347</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>469983.5735421348</v>
+        <v>469983.5735421345</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469983.5735421343</v>
+        <v>469983.5735421347</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>469983.5735421343</v>
+        <v>469983.5735421347</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469983.5735421346</v>
+        <v>469983.5735421345</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469983.5735421342</v>
+        <v>469983.5735421347</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="F2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="G2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="H2" t="n">
-        <v>277717.5661839885</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="I2" t="n">
-        <v>277717.5661839886</v>
+        <v>277717.5661839884</v>
       </c>
       <c r="J2" t="n">
         <v>277717.5661839885</v>
@@ -26343,16 +26343,16 @@
         <v>277717.5661839885</v>
       </c>
       <c r="L2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="M2" t="n">
+        <v>277717.5661839886</v>
+      </c>
+      <c r="N2" t="n">
         <v>277717.5661839885</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="N2" t="n">
-        <v>277717.5661839886</v>
-      </c>
-      <c r="O2" t="n">
-        <v>277717.5661839882</v>
       </c>
       <c r="P2" t="n">
         <v>277717.5661839884</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
@@ -26426,10 +26426,10 @@
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>305.9587030485383</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="F4" t="n">
-        <v>305.9587030485383</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="G4" t="n">
         <v>305.9587030485383</v>
@@ -26441,7 +26441,7 @@
         <v>305.9587030485383</v>
       </c>
       <c r="J4" t="n">
-        <v>305.9587030485383</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="K4" t="n">
         <v>305.9587030485383</v>
@@ -26456,7 +26456,7 @@
         <v>305.9587030485383</v>
       </c>
       <c r="O4" t="n">
-        <v>305.9587030485383</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="P4" t="n">
         <v>305.9587030485383</v>
@@ -26481,7 +26481,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26493,7 +26493,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
         <v>27864.35291375756</v>
@@ -26502,13 +26502,13 @@
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="N5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="N5" t="n">
-        <v>27864.35291375756</v>
-      </c>
       <c r="O5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="P5" t="n">
         <v>27864.35291375756</v>
@@ -26524,46 +26524,46 @@
         <v>125501.3899843115</v>
       </c>
       <c r="C6" t="n">
-        <v>206270.821515859</v>
+        <v>206270.8215158592</v>
       </c>
       <c r="D6" t="n">
         <v>206270.8215158592</v>
       </c>
       <c r="E6" t="n">
-        <v>82607.0844419357</v>
+        <v>72762.4850485588</v>
       </c>
       <c r="F6" t="n">
-        <v>249547.2545671824</v>
+        <v>239702.6551738056</v>
       </c>
       <c r="G6" t="n">
-        <v>249547.2545671824</v>
+        <v>239702.6551738056</v>
       </c>
       <c r="H6" t="n">
-        <v>249547.2545671824</v>
+        <v>239702.6551738056</v>
       </c>
       <c r="I6" t="n">
-        <v>249547.2545671825</v>
+        <v>239702.6551738056</v>
       </c>
       <c r="J6" t="n">
-        <v>186487.3119680762</v>
+        <v>176642.7125746994</v>
       </c>
       <c r="K6" t="n">
-        <v>249547.2545671824</v>
+        <v>239702.6551738056</v>
       </c>
       <c r="L6" t="n">
-        <v>249547.2545671824</v>
+        <v>239702.6551738055</v>
       </c>
       <c r="M6" t="n">
-        <v>208496.5567047345</v>
+        <v>198651.9573113578</v>
       </c>
       <c r="N6" t="n">
-        <v>249547.2545671826</v>
+        <v>239702.6551738057</v>
       </c>
       <c r="O6" t="n">
-        <v>249547.2545671821</v>
+        <v>239702.6551738057</v>
       </c>
       <c r="P6" t="n">
-        <v>249547.2545671823</v>
+        <v>239702.6551738056</v>
       </c>
     </row>
   </sheetData>
@@ -26828,7 +26828,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="P4" t="n">
         <v>405.7415719969023</v>
@@ -27393,7 +27393,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>176.2594526848952</v>
       </c>
       <c r="V2" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>88.8989033826382</v>
+        <v>119.652489182596</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,28 +27660,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>152.5970991193535</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>147.6302790004598</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,28 +27697,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>118.8951616915192</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>14.31384691677781</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>192.1783936941173</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27918,10 +27918,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.131336269458</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>82.30991402597871</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31855,19 +31855,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>66.08472371006599</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32092,19 +32092,19 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32171,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32180,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
@@ -32326,7 +32326,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O18" t="n">
         <v>75.01019504100589</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011532</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046561</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629217</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645899</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044656</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438473</v>
@@ -32487,25 +32487,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971763</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737664</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134782</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545222</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091549</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809224</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891927</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.7858796132193</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409521</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253942</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864763</v>
+        <v>70.24128376132148</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975587</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100586</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601699</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326608</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422063</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
-        <v>1.270749889259947</v>
+        <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823637</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412593</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323127</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141107</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039454</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735008</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118888</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
-        <v>1.129323738970202</v>
+        <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
         <v>0.01441689879536431</v>
@@ -32791,22 +32791,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>41.20199547436005</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K27" t="n">
         <v>50.90881248409524</v>
@@ -33037,7 +33037,7 @@
         <v>79.88163340864766</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975591</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O27" t="n">
         <v>75.01019504100589</v>
@@ -33265,10 +33265,10 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>67.37985939329639</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33280,7 +33280,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601701</v>
+        <v>29.99764417805503</v>
       </c>
       <c r="Q30" t="n">
         <v>40.24363958326609</v>
@@ -33502,10 +33502,10 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>41.20199547436002</v>
       </c>
       <c r="L33" t="n">
-        <v>41.20199547435999</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -33742,7 +33742,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>41.20199547436022</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33754,10 +33754,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>59.12897300677395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436761</v>
@@ -33976,10 +33976,10 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>79.88163340864766</v>
@@ -33988,10 +33988,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>60.45516400250165</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34216,10 +34216,10 @@
         <v>50.90881248409524</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>79.88163340864766</v>
+        <v>61.65259222251876</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>60.20229453601701</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436761</v>
@@ -34450,22 +34450,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M45" t="n">
-        <v>53.55659938750551</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N45" t="n">
-        <v>57.74090973668206</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q45" t="n">
         <v>40.24363958326609</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35500,16 +35500,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>204.7236884007503</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>317.3507985423511</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>283.0294564445191</v>
       </c>
       <c r="O15" t="n">
-        <v>250.1927533030421</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>112.5702101577124</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>218.7858918080121</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>244.6906557616239</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167965</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726432</v>
@@ -36132,16 +36132,16 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N20" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O20" t="n">
         <v>249.9811662707763</v>
       </c>
       <c r="P20" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680302</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>189.7466035210507</v>
+        <v>393.8123135893031</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243077</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325165</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576035</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714789</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>364.7730253023416</v>
       </c>
       <c r="N24" t="n">
-        <v>302.3746655144175</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>326.276269873291</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
         <v>177.5326105223148</v>
@@ -36685,10 +36685,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>288.2328458075942</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>179.7282553970219</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>299.6658249168814</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>323.5710298279816</v>
@@ -36928,7 +36928,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>214.4860054036619</v>
       </c>
       <c r="Q30" t="n">
         <v>110.3391532330937</v>
@@ -37150,10 +37150,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>167.8257935125796</v>
       </c>
       <c r="L33" t="n">
-        <v>273.487960997945</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
@@ -37387,10 +37387,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>273.4879609979452</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
@@ -37402,10 +37402,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>243.6173342323809</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
@@ -37636,13 +37636,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>311.7212388347867</v>
       </c>
       <c r="P39" t="n">
-        <v>88.72550578272731</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366292</v>
+        <v>385.2236220505004</v>
       </c>
       <c r="N42" t="n">
-        <v>14.50290175900885</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37879,7 +37879,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>377.1276292154871</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>340.7791716322998</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1682231.443258533</v>
+        <v>1732124.219909531</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381417.3404720773</v>
+        <v>361404.4672645596</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6684625.454516197</v>
+        <v>6684625.454516198</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>75.08620022294134</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>136.8640974686392</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>86.12049602088146</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.0339917726842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>98.74855378848305</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>107.0462203894556</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5232176877595</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.1960350243787</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="I8" t="n">
-        <v>18.29749587628862</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>123.3727817513256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.3492021643687</v>
+        <v>317.3714190395622</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>88.00880902957793</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.99844547665367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>73.36175976093797</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>264.0251236100225</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>127.2563964367027</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>8.644241788329229</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>140.9445834237648</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>31.46288204362235</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>22.56969713338541</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>210.3084152197367</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>59.93139537243139</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>195.5251108792963</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>38.97640474817491</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>156.3643295326802</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>147.3647965035349</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,19 +2165,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>96.4226099658009</v>
+        <v>164.5191538639073</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>324.0607648641353</v>
+        <v>209.7106249622196</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>81.12752273267785</v>
+        <v>81.12752273267807</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>32.57639700375392</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.3142252700988</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.9244781652842</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>17.40032196983699</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>144.6453993083821</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>180.1755314573207</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>225.1318117635837</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2873,13 +2873,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>19.36111400867572</v>
       </c>
       <c r="T30" t="n">
-        <v>32.90473339009647</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>33.64439241526551</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>97.12904056286493</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>85.52353857068408</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3167,7 +3167,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>67.51731269241176</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.637108967925695</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>123.4746204242131</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>42.44128741270555</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>61.89398566704774</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33.64439241526551</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>84.61535944178669</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>41.7471284716177</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.170411632321679</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>197.9121536486215</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>12.58838388982756</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>73.36175976093789</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969024</v>
+        <v>399.8885402891418</v>
       </c>
       <c r="H41" t="n">
-        <v>287.0328539434443</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>81.1275227326783</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>88.93004835708112</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>158.252581986138</v>
       </c>
       <c r="S43" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>56.78658728852928</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>62.66644856093189</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>74.92755848587066</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4115,16 +4115,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>120.9830058185664</v>
       </c>
     </row>
     <row r="46">
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>13.65637930133918</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.2572196227447</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C2" t="n">
-        <v>290.2572196227447</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D2" t="n">
-        <v>290.2572196227447</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>290.2572196227447</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>290.2572196227447</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>290.2572196227447</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>290.2572196227447</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.2572196227447</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4421,7 +4421,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>825.8105924110007</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>597.5869741473898</v>
       </c>
       <c r="V3" t="n">
-        <v>197.3253049269343</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W3" t="n">
-        <v>197.3253049269343</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>234.7731431109335</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>219.3158324895849</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>266.3558523848238</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V5" t="n">
-        <v>266.3558523848238</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W5" t="n">
-        <v>266.3558523848238</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X5" t="n">
-        <v>266.3558523848238</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.3558523848238</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754.7601307206374</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="C6" t="n">
-        <v>580.3071014395105</v>
+        <v>398.0001399844777</v>
       </c>
       <c r="D6" t="n">
-        <v>431.3726917782591</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E6" t="n">
-        <v>272.1352367728036</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>754.7601307206374</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>754.7601307206374</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="W6" t="n">
-        <v>754.7601307206374</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="X6" t="n">
-        <v>754.7601307206374</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="Y6" t="n">
-        <v>754.7601307206374</v>
+        <v>572.4531692656047</v>
       </c>
     </row>
     <row r="7">
@@ -4713,16 +4713,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>65.29076204560282</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G8" t="n">
-        <v>49.83345142425428</v>
+        <v>211.3080142077841</v>
       </c>
       <c r="H8" t="n">
-        <v>49.83345142425428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>570.0533175774684</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C9" t="n">
-        <v>395.6002882963414</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D9" t="n">
-        <v>395.6002882963414</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E9" t="n">
         <v>395.6002882963414</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="Y9" t="n">
-        <v>738.2686545975364</v>
+        <v>878.2251822441752</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>738.230242413013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U11" t="n">
-        <v>1369.129404919863</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="V11" t="n">
-        <v>1369.129404919863</v>
+        <v>726.5022749698848</v>
       </c>
       <c r="W11" t="n">
-        <v>1016.360749649749</v>
+        <v>726.5022749698848</v>
       </c>
       <c r="X11" t="n">
-        <v>1016.360749649749</v>
+        <v>353.0365167088049</v>
       </c>
       <c r="Y11" t="n">
-        <v>738.230242413013</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>260.7291119938702</v>
+        <v>121.3571126583158</v>
       </c>
       <c r="C12" t="n">
-        <v>260.7291119938702</v>
+        <v>121.3571126583158</v>
       </c>
       <c r="D12" t="n">
-        <v>111.7947023326189</v>
+        <v>121.3571126583158</v>
       </c>
       <c r="E12" t="n">
-        <v>111.7947023326189</v>
+        <v>121.3571126583158</v>
       </c>
       <c r="F12" t="n">
-        <v>111.7947023326189</v>
+        <v>121.3571126583158</v>
       </c>
       <c r="G12" t="n">
-        <v>111.7947023326189</v>
+        <v>121.3571126583158</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M12" t="n">
-        <v>855.0325800923007</v>
+        <v>777.654182139349</v>
       </c>
       <c r="N12" t="n">
-        <v>1199.553235729919</v>
+        <v>1122.174837776967</v>
       </c>
       <c r="O12" t="n">
-        <v>1513.730526286846</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1555.291090536444</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1555.291090536444</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1354.388081641937</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>1126.185414179415</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>891.0333059476727</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W12" t="n">
-        <v>636.795949219471</v>
+        <v>536.9689116288025</v>
       </c>
       <c r="X12" t="n">
-        <v>428.9444490139382</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="Y12" t="n">
-        <v>428.9444490139382</v>
+        <v>121.3571126583158</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5235,16 +5235,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>106.5621133970633</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.5977926533735</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C14" t="n">
-        <v>883.5977926533735</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D14" t="n">
-        <v>883.5977926533735</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E14" t="n">
-        <v>497.8095400551293</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F14" t="n">
-        <v>497.8095400551293</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G14" t="n">
-        <v>497.8095400551293</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>161.0011403422802</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W14" t="n">
-        <v>1270.197632717495</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X14" t="n">
-        <v>1270.197632717495</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y14" t="n">
-        <v>1270.197632717495</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>661.618777680701</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C15" t="n">
-        <v>487.165748399574</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D15" t="n">
-        <v>338.2313387383227</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E15" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>157.8168858175896</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>387.7799916859387</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>708.1153112156405</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N15" t="n">
-        <v>988.3144730957144</v>
+        <v>1117.3093031997</v>
       </c>
       <c r="O15" t="n">
-        <v>1311.327980270273</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.57172947428</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
@@ -5384,25 +5384,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1614.23473062566</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1413.331721731154</v>
       </c>
       <c r="U15" t="n">
-        <v>1622.966287987609</v>
+        <v>1185.129054268632</v>
       </c>
       <c r="V15" t="n">
-        <v>1387.814179755867</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="W15" t="n">
-        <v>1245.445913671256</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.594413465723</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y15" t="n">
-        <v>829.8341147007691</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>329.4659126699983</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>329.4659126699983</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5475,13 +5475,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>329.4659126699983</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>329.4659126699983</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y16" t="n">
-        <v>329.4659126699983</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1202.653768535401</v>
+        <v>55.25699963185866</v>
       </c>
       <c r="C17" t="n">
-        <v>1202.653768535401</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D17" t="n">
-        <v>844.3880699286501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E17" t="n">
-        <v>844.3880699286501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F17" t="n">
-        <v>434.5480982146074</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>434.5480982146074</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5542,25 +5542,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1202.653768535401</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U17" t="n">
-        <v>1202.653768535401</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V17" t="n">
-        <v>1202.653768535401</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W17" t="n">
-        <v>1202.653768535401</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="X17" t="n">
-        <v>1202.653768535401</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="Y17" t="n">
-        <v>1202.653768535401</v>
+        <v>441.8568396959805</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>267.4491180433351</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C18" t="n">
-        <v>92.99608876220813</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E18" t="n">
         <v>32.45932575975218</v>
@@ -5594,52 +5594,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>172.6527292199793</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L18" t="n">
-        <v>470.3844842016425</v>
+        <v>387.7799916859387</v>
       </c>
       <c r="M18" t="n">
-        <v>869.8026208059055</v>
+        <v>708.1153112156405</v>
       </c>
       <c r="N18" t="n">
-        <v>1271.486777082839</v>
+        <v>1052.635966853259</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1340.665718993834</v>
+        <v>1257.963940946486</v>
       </c>
       <c r="U18" t="n">
-        <v>1340.665718993834</v>
+        <v>1029.761273483964</v>
       </c>
       <c r="V18" t="n">
-        <v>1105.513610762092</v>
+        <v>1029.761273483964</v>
       </c>
       <c r="W18" t="n">
-        <v>851.2762540338899</v>
+        <v>775.5239167557625</v>
       </c>
       <c r="X18" t="n">
-        <v>643.4247538283571</v>
+        <v>567.6724165502296</v>
       </c>
       <c r="Y18" t="n">
-        <v>435.6644550634032</v>
+        <v>359.9121177852757</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V19" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
         <v>32.45932575975218</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1137.373395793395</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.373395793395</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="D20" t="n">
-        <v>779.107697186644</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="E20" t="n">
-        <v>779.107697186644</v>
+        <v>1010.083036392565</v>
       </c>
       <c r="F20" t="n">
-        <v>779.107697186644</v>
+        <v>600.2430646785224</v>
       </c>
       <c r="G20" t="n">
-        <v>369.2677254726013</v>
+        <v>190.4030929644796</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975218</v>
@@ -5758,10 +5758,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1286.226725594945</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U20" t="n">
-        <v>1137.373395793395</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V20" t="n">
-        <v>1137.373395793395</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W20" t="n">
-        <v>1137.373395793395</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X20" t="n">
-        <v>1137.373395793395</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y20" t="n">
-        <v>1137.373395793395</v>
+        <v>1010.083036392565</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.7528837522889</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="C21" t="n">
-        <v>142.7528837522889</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D21" t="n">
-        <v>142.7528837522889</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E21" t="n">
-        <v>142.7528837522889</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F21" t="n">
-        <v>142.7528837522889</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
         <v>32.45932575975218</v>
@@ -5834,49 +5834,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>157.8168858175896</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>387.7799916859387</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M21" t="n">
-        <v>777.6541821393488</v>
+        <v>826.2836846882088</v>
       </c>
       <c r="N21" t="n">
-        <v>1122.174837776967</v>
+        <v>1170.804340325827</v>
       </c>
       <c r="O21" t="n">
-        <v>1370.928251860929</v>
+        <v>1440.322810374258</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.57172947428</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1444.17215216531</v>
+        <v>1456.785324488713</v>
       </c>
       <c r="T21" t="n">
-        <v>1444.17215216531</v>
+        <v>1255.882315594206</v>
       </c>
       <c r="U21" t="n">
-        <v>1215.969484702788</v>
+        <v>1255.882315594206</v>
       </c>
       <c r="V21" t="n">
-        <v>980.8173764710452</v>
+        <v>1255.882315594206</v>
       </c>
       <c r="W21" t="n">
-        <v>726.5800197428437</v>
+        <v>1001.644958866005</v>
       </c>
       <c r="X21" t="n">
-        <v>518.7285195373108</v>
+        <v>793.7934586604717</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.968220772357</v>
+        <v>793.7934586604717</v>
       </c>
     </row>
     <row r="22">
@@ -5934,22 +5934,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>254.0859912868768</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>32.45932575975218</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="U22" t="n">
-        <v>32.45932575975218</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975218</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975218</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X22" t="n">
         <v>32.45932575975218</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1369.129404919863</v>
+        <v>244.2882398630043</v>
       </c>
       <c r="C23" t="n">
-        <v>1369.129404919863</v>
+        <v>244.2882398630043</v>
       </c>
       <c r="D23" t="n">
-        <v>1369.129404919863</v>
+        <v>244.2882398630043</v>
       </c>
       <c r="E23" t="n">
-        <v>1041.795298996494</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F23" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6016,25 +6016,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U23" t="n">
-        <v>1369.129404919863</v>
+        <v>948.8168854676549</v>
       </c>
       <c r="V23" t="n">
-        <v>1369.129404919863</v>
+        <v>617.7539981240842</v>
       </c>
       <c r="W23" t="n">
-        <v>1369.129404919863</v>
+        <v>617.7539981240842</v>
       </c>
       <c r="X23" t="n">
-        <v>1369.129404919863</v>
+        <v>244.2882398630043</v>
       </c>
       <c r="Y23" t="n">
-        <v>1369.129404919863</v>
+        <v>244.2882398630043</v>
       </c>
     </row>
     <row r="24">
@@ -6047,46 +6047,46 @@
         <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>186.5657812216814</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>416.5288870900306</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M24" t="n">
-        <v>777.6541821393488</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N24" t="n">
-        <v>1122.174837776967</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O24" t="n">
-        <v>1370.928251860929</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1553.57172947428</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6174,25 +6174,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>772.9197270395514</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>772.9197270395514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>772.9197270395514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>772.9197270395514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>772.9197270395514</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>363.0797553255086</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T26" t="n">
-        <v>1400.222368368377</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U26" t="n">
-        <v>1146.385485300631</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V26" t="n">
-        <v>1146.385485300631</v>
+        <v>788.0216827642857</v>
       </c>
       <c r="W26" t="n">
-        <v>1146.385485300631</v>
+        <v>788.0216827642857</v>
       </c>
       <c r="X26" t="n">
-        <v>772.9197270395514</v>
+        <v>788.0216827642857</v>
       </c>
       <c r="Y26" t="n">
-        <v>772.9197270395514</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>496.6196464651039</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C27" t="n">
-        <v>496.6196464651039</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D27" t="n">
-        <v>347.6852368038526</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E27" t="n">
-        <v>188.4477817983971</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F27" t="n">
-        <v>188.4477817983971</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G27" t="n">
-        <v>50.03540855756734</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H27" t="n">
-        <v>50.03540855756734</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
         <v>61.20822116384403</v>
@@ -6314,16 +6314,16 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N27" t="n">
-        <v>1335.799553443795</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
-        <v>1513.730526286847</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6332,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1476.859824039748</v>
       </c>
       <c r="T27" t="n">
-        <v>1422.063279093103</v>
+        <v>1275.956815145242</v>
       </c>
       <c r="U27" t="n">
-        <v>1193.860611630581</v>
+        <v>1047.75414768272</v>
       </c>
       <c r="V27" t="n">
-        <v>958.7085033988383</v>
+        <v>812.6020394509774</v>
       </c>
       <c r="W27" t="n">
-        <v>704.4711466706367</v>
+        <v>558.3646827227757</v>
       </c>
       <c r="X27" t="n">
-        <v>496.6196464651039</v>
+        <v>350.5131825172429</v>
       </c>
       <c r="Y27" t="n">
-        <v>496.6196464651039</v>
+        <v>142.7528837522889</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6408,28 +6408,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="U28" t="n">
-        <v>321.8764957967128</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="V28" t="n">
-        <v>321.8764957967128</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="C29" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="D29" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737949</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F29" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
         <v>70.13987180521497</v>
@@ -6469,10 +6469,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6493,22 +6493,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>1218.226882047851</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1218.226882047851</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1218.226882047851</v>
+        <v>1395.560417519343</v>
       </c>
       <c r="X29" t="n">
-        <v>1218.226882047851</v>
+        <v>1022.094659258263</v>
       </c>
       <c r="Y29" t="n">
-        <v>828.0875500720392</v>
+        <v>631.9553272824514</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975218</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975218</v>
+        <v>301.9903387577444</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>157.8168858175896</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L30" t="n">
-        <v>387.7799916859387</v>
+        <v>262.4224316281013</v>
       </c>
       <c r="M30" t="n">
-        <v>708.1153112156405</v>
+        <v>661.8405682323643</v>
       </c>
       <c r="N30" t="n">
-        <v>1052.635966853259</v>
+        <v>1063.524724509298</v>
       </c>
       <c r="O30" t="n">
-        <v>1301.389380937221</v>
+        <v>1386.538231683856</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1603.409607170765</v>
       </c>
       <c r="T30" t="n">
-        <v>1508.3316234539</v>
+        <v>1603.409607170765</v>
       </c>
       <c r="U30" t="n">
-        <v>1280.128955991378</v>
+        <v>1375.206939708243</v>
       </c>
       <c r="V30" t="n">
-        <v>1044.976847759636</v>
+        <v>1140.054831476501</v>
       </c>
       <c r="W30" t="n">
-        <v>790.739491031434</v>
+        <v>885.8174747482992</v>
       </c>
       <c r="X30" t="n">
-        <v>582.8879908259012</v>
+        <v>677.9659745427664</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.1276920609472</v>
+        <v>470.2056757778125</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6648,25 +6648,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>327.2623668400556</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>327.2623668400556</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>327.2623668400556</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V31" t="n">
-        <v>327.2623668400556</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y31" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>949.343571115571</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C32" t="n">
-        <v>580.3810541751592</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D32" t="n">
-        <v>222.1153555684087</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011318</v>
@@ -6709,7 +6709,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6730,22 +6730,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1302.112226385685</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1302.112226385685</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>949.343571115571</v>
+        <v>1536.578875289948</v>
       </c>
       <c r="X32" t="n">
-        <v>949.343571115571</v>
+        <v>1163.113117028869</v>
       </c>
       <c r="Y32" t="n">
-        <v>949.343571115571</v>
+        <v>1163.113117028869</v>
       </c>
     </row>
     <row r="33">
@@ -6758,61 +6758,61 @@
         <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>227.3557567412979</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L33" t="n">
-        <v>457.318862609647</v>
+        <v>455.5486407992528</v>
       </c>
       <c r="M33" t="n">
-        <v>777.6541821393488</v>
+        <v>847.0487406526782</v>
       </c>
       <c r="N33" t="n">
-        <v>1122.174837776967</v>
+        <v>1191.569396290296</v>
       </c>
       <c r="O33" t="n">
-        <v>1370.928251860929</v>
+        <v>1440.322810374259</v>
       </c>
       <c r="P33" t="n">
-        <v>1553.57172947428</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V33" t="n">
         <v>876.7615107395675</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>42.19377926270744</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>42.19377926270744</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6885,25 +6885,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>139.6199360758254</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.1153555684087</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C35" t="n">
-        <v>222.1153555684087</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D35" t="n">
-        <v>222.1153555684087</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
@@ -6946,7 +6946,7 @@
         <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1498.244449175273</v>
       </c>
       <c r="T35" t="n">
-        <v>1202.653768535401</v>
+        <v>1498.244449175273</v>
       </c>
       <c r="U35" t="n">
-        <v>948.8168854676546</v>
+        <v>1498.244449175273</v>
       </c>
       <c r="V35" t="n">
-        <v>617.753998124084</v>
+        <v>1498.244449175273</v>
       </c>
       <c r="W35" t="n">
-        <v>264.9853428539698</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="X35" t="n">
-        <v>222.1153555684087</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.1153555684087</v>
+        <v>1145.475793905159</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6600854869342</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
@@ -7019,19 +7019,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>186.5657812216814</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>416.5288870900306</v>
       </c>
       <c r="M36" t="n">
-        <v>679.275295675209</v>
+        <v>736.8642066197324</v>
       </c>
       <c r="N36" t="n">
-        <v>1023.795951312827</v>
+        <v>1081.384862257351</v>
       </c>
       <c r="O36" t="n">
-        <v>1272.549365396789</v>
+        <v>1331.087048673495</v>
       </c>
       <c r="P36" t="n">
         <v>1513.730526286846</v>
@@ -7040,28 +7040,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.568727888341</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T36" t="n">
-        <v>1541.568727888341</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U36" t="n">
-        <v>1541.568727888341</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>1306.416619656598</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>1052.179262928397</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>1052.179262928397</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>989.6600854869342</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D37" t="n">
-        <v>327.2623668400556</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E37" t="n">
-        <v>179.3492732576625</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975218</v>
@@ -7122,25 +7122,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>990.2210258892019</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="C38" t="n">
-        <v>990.2210258892019</v>
+        <v>527.7693575160038</v>
       </c>
       <c r="D38" t="n">
-        <v>631.9553272824514</v>
+        <v>527.7693575160038</v>
       </c>
       <c r="E38" t="n">
-        <v>631.9553272824514</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>631.9553272824514</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
@@ -7180,10 +7180,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1032.3898425272</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>990.2210258892019</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W38" t="n">
-        <v>990.2210258892019</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X38" t="n">
-        <v>990.2210258892019</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="Y38" t="n">
-        <v>990.2210258892019</v>
+        <v>896.7318744564154</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.5006335659854</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="C39" t="n">
-        <v>360.5006335659854</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="D39" t="n">
-        <v>360.5006335659854</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E39" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
@@ -7256,49 +7256,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>157.8168858175896</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>387.7799916859387</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>787.1981282902017</v>
+        <v>650.5264002711172</v>
       </c>
       <c r="N39" t="n">
-        <v>1131.71878392782</v>
+        <v>1047.914744686371</v>
       </c>
       <c r="O39" t="n">
-        <v>1440.322810374259</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1614.71334694486</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1447.211111903026</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1246.308103008519</v>
+        <v>1255.552786634036</v>
       </c>
       <c r="U39" t="n">
-        <v>1018.105435545998</v>
+        <v>1027.350119171515</v>
       </c>
       <c r="V39" t="n">
-        <v>782.9533273142549</v>
+        <v>792.1980109397718</v>
       </c>
       <c r="W39" t="n">
-        <v>528.7159705860533</v>
+        <v>537.9606542115703</v>
       </c>
       <c r="X39" t="n">
-        <v>528.7159705860533</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="Y39" t="n">
-        <v>528.7159705860533</v>
+        <v>330.1091540060374</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
         <v>32.45932575975219</v>
@@ -7356,28 +7356,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>181.4512025860964</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>181.4512025860964</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U40" t="n">
-        <v>181.4512025860964</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y40" t="n">
-        <v>181.4512025860964</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>732.2314731742438</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C41" t="n">
-        <v>732.2314731742438</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D41" t="n">
-        <v>732.2314731742438</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E41" t="n">
-        <v>732.2314731742438</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="F41" t="n">
-        <v>732.2314731742438</v>
+        <v>436.3871442336328</v>
       </c>
       <c r="G41" t="n">
-        <v>322.3915014602009</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975219</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>1118.831313238366</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.9123550408792</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
@@ -7493,22 +7493,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>157.8168858175896</v>
       </c>
       <c r="L42" t="n">
-        <v>262.4224316281013</v>
+        <v>455.5486407992528</v>
       </c>
       <c r="M42" t="n">
-        <v>643.7938174580967</v>
+        <v>854.9667774035157</v>
       </c>
       <c r="N42" t="n">
-        <v>988.3144730957147</v>
+        <v>1256.650933680449</v>
       </c>
       <c r="O42" t="n">
-        <v>1311.327980270273</v>
+        <v>1579.664440855007</v>
       </c>
       <c r="P42" t="n">
-        <v>1553.57172947428</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.96628798761</v>
@@ -7517,25 +7517,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1340.116286433832</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U42" t="n">
-        <v>1111.91361897131</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="V42" t="n">
-        <v>876.7615107395675</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="W42" t="n">
-        <v>622.5241540113659</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="X42" t="n">
-        <v>414.6726538058331</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.9123550408792</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C43" t="n">
         <v>32.45932575975219</v>
@@ -7593,28 +7593,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="S43" t="n">
-        <v>253.2519049032823</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="T43" t="n">
-        <v>253.2519049032823</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="U43" t="n">
-        <v>253.2519049032823</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V43" t="n">
-        <v>253.2519049032823</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W43" t="n">
-        <v>253.2519049032823</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X43" t="n">
-        <v>253.2519049032823</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.81951494008479</v>
+        <v>1232.826956011797</v>
       </c>
       <c r="C44" t="n">
-        <v>89.81951494008479</v>
+        <v>863.8644390713857</v>
       </c>
       <c r="D44" t="n">
-        <v>89.81951494008479</v>
+        <v>505.5987404646352</v>
       </c>
       <c r="E44" t="n">
-        <v>32.45932575975218</v>
+        <v>505.5987404646352</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975218</v>
+        <v>95.75876875059248</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7675,25 +7675,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>849.8851132652865</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>476.4193550042066</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>476.4193550042066</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>910.3247089140674</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>735.8716796329404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D45" t="n">
-        <v>586.9372699716891</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E45" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>281.1652569931186</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
         <v>32.45932575975218</v>
@@ -7727,25 +7727,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>534.6972605625989</v>
+        <v>438.179716045193</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668618</v>
+        <v>758.5150355748948</v>
       </c>
       <c r="N45" t="n">
-        <v>1271.486777082839</v>
+        <v>1103.035691212513</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1370.928251860929</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1553.57172947428</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1422.063279093102</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U45" t="n">
-        <v>1193.860611630581</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V45" t="n">
-        <v>1193.860611630581</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W45" t="n">
-        <v>1193.860611630581</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X45" t="n">
-        <v>986.0091114250479</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y45" t="n">
-        <v>986.0091114250479</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E46" t="n">
-        <v>46.25364828635742</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F46" t="n">
-        <v>46.25364828635742</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7830,28 +7830,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="T46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="U46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="V46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.1667418687505</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
   </sheetData>
@@ -8069,10 +8069,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>303.774711870172</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>414.3711685278524</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>199.5028366479762</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>154.3480269207542</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>247.3143048004605</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>177.7136469422115</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>472.1208837156331</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,7 +23275,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.8887364916849</v>
+        <v>68.86651961649142</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,10 +23354,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>21.18181338303343</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.58513902162184</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>72.05928826199327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
@@ -23475,10 +23475,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>213.161238575653</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>118.7087180534581</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>60.50307307386721</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -23624,19 +23624,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>157.1829709030865</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>110.7503997371548</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>255.0601162929686</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>342.7031946376221</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>123.1319004959839</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,13 +23813,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>87.51367019220737</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.368867926265381</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>213.1612385756531</v>
+        <v>212.9428526967576</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>177.0759861830404</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>103.9337177335335</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,19 +24053,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>69.40460272561485</v>
+        <v>1.308058827508432</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,13 +24174,13 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>59.320056923945</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>127.0265179935825</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>57.86960520812653</v>
+        <v>172.2197451100422</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24335,7 +24335,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>84.69968995873791</v>
+        <v>84.69968995873768</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>135.1502725434565</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>74.67247646141476</v>
@@ -24414,7 +24414,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>119.6206511761246</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>6.126090445621799</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>85.82778030485068</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,22 +24527,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>61.14170083730104</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>21.1818133830337</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>219.4103988718534</v>
@@ -24657,13 +24657,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>247.3282077095206</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>126.4326563886826</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>71.1229827797477</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>124.1091569538293</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,13 +24761,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,7 +24776,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>146.46609868274</v>
       </c>
       <c r="T30" t="n">
-        <v>165.9892454154652</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
@@ -24888,19 +24888,19 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>185.7660064565879</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>154.1694736742035</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>263.7174301467289</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>165.2832744570135</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>135.7839390550056</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
@@ -25125,10 +25125,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>120.7272614763988</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25174,7 +25174,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>72.11829341043341</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>327.2898132657635</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,22 +25238,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>143.7887101102566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>114.9710806029468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25362,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>61.63766533429788</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>297.3150106304751</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>286.0051299985172</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>72.41317286595384</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.9818251569401468</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25569,7 +25569,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
         <v>74.67247646141476</v>
@@ -25596,19 +25596,19 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>206.8220149820258</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>153.4545059283734</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631526</v>
+        <v>14.8249638413921</v>
       </c>
       <c r="H41" t="n">
-        <v>46.40746177227635</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>84.69968995873745</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>136.9905924308155</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,10 +25833,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>7.156479150719491</v>
       </c>
       <c r="S43" t="n">
-        <v>112.4956491391823</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>325.1437827837325</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>352.047055569602</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25915,10 +25915,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91.60562516399668</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -25994,7 +25994,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>84.69968995873801</v>
       </c>
     </row>
     <row r="46">
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>154.0702902458712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26070,7 +26070,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.636327599302035</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469983.5735421343</v>
+        <v>469983.5735421342</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469983.5735421348</v>
+        <v>469983.5735421343</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469983.5735421342</v>
+        <v>469983.5735421344</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>469983.5735421346</v>
+        <v>469983.5735421342</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>469983.5735421342</v>
+        <v>469983.5735421347</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>469983.5735421342</v>
+        <v>469983.5735421344</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>469983.5735421347</v>
+        <v>469983.5735421345</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421347</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>469983.5735421347</v>
+        <v>469983.5735421344</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469983.5735421345</v>
+        <v>469983.5735421346</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469983.5735421347</v>
+        <v>469983.5735421345</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26325,13 +26325,13 @@
         <v>277717.5661839884</v>
       </c>
       <c r="F2" t="n">
+        <v>277717.5661839885</v>
+      </c>
+      <c r="G2" t="n">
         <v>277717.5661839884</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="H2" t="n">
-        <v>277717.5661839884</v>
       </c>
       <c r="I2" t="n">
         <v>277717.5661839884</v>
@@ -26340,22 +26340,22 @@
         <v>277717.5661839885</v>
       </c>
       <c r="K2" t="n">
+        <v>277717.5661839884</v>
+      </c>
+      <c r="L2" t="n">
         <v>277717.5661839885</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>277717.5661839884</v>
-      </c>
-      <c r="M2" t="n">
-        <v>277717.5661839886</v>
       </c>
       <c r="N2" t="n">
         <v>277717.5661839885</v>
       </c>
       <c r="O2" t="n">
+        <v>277717.5661839886</v>
+      </c>
+      <c r="P2" t="n">
         <v>277717.5661839885</v>
-      </c>
-      <c r="P2" t="n">
-        <v>277717.5661839884</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910624</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>279125.0601321633</v>
+      </c>
+      <c r="C4" t="n">
         <v>279125.0601321634</v>
       </c>
-      <c r="C4" t="n">
-        <v>279125.0601321633</v>
-      </c>
       <c r="D4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>305.9587030485384</v>
       </c>
       <c r="F4" t="n">
-        <v>305.9587030485384</v>
+        <v>305.9587030485383</v>
       </c>
       <c r="G4" t="n">
         <v>305.9587030485383</v>
@@ -26438,10 +26438,10 @@
         <v>305.9587030485383</v>
       </c>
       <c r="I4" t="n">
+        <v>305.9587030485384</v>
+      </c>
+      <c r="J4" t="n">
         <v>305.9587030485383</v>
-      </c>
-      <c r="J4" t="n">
-        <v>305.9587030485384</v>
       </c>
       <c r="K4" t="n">
         <v>305.9587030485383</v>
@@ -26453,7 +26453,7 @@
         <v>305.9587030485383</v>
       </c>
       <c r="N4" t="n">
-        <v>305.9587030485383</v>
+        <v>305.9587030485384</v>
       </c>
       <c r="O4" t="n">
         <v>305.9587030485384</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="F5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26490,16 +26490,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="J5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="K5" t="n">
-        <v>27864.35291375756</v>
-      </c>
       <c r="L5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125501.3899843115</v>
+        <v>125501.3899843114</v>
       </c>
       <c r="C6" t="n">
-        <v>206270.8215158592</v>
+        <v>206270.821515859</v>
       </c>
       <c r="D6" t="n">
-        <v>206270.8215158592</v>
+        <v>206270.8215158591</v>
       </c>
       <c r="E6" t="n">
-        <v>72762.4850485588</v>
+        <v>81622.62450259789</v>
       </c>
       <c r="F6" t="n">
-        <v>239702.6551738056</v>
+        <v>248562.7946278447</v>
       </c>
       <c r="G6" t="n">
-        <v>239702.6551738056</v>
+        <v>248562.7946278446</v>
       </c>
       <c r="H6" t="n">
-        <v>239702.6551738056</v>
+        <v>248562.7946278448</v>
       </c>
       <c r="I6" t="n">
-        <v>239702.6551738056</v>
+        <v>248562.7946278446</v>
       </c>
       <c r="J6" t="n">
-        <v>176642.7125746994</v>
+        <v>185502.8520287386</v>
       </c>
       <c r="K6" t="n">
-        <v>239702.6551738056</v>
+        <v>248562.7946278446</v>
       </c>
       <c r="L6" t="n">
-        <v>239702.6551738055</v>
+        <v>248562.7946278447</v>
       </c>
       <c r="M6" t="n">
-        <v>198651.9573113578</v>
+        <v>207512.0967653968</v>
       </c>
       <c r="N6" t="n">
-        <v>239702.6551738057</v>
+        <v>248562.7946278448</v>
       </c>
       <c r="O6" t="n">
-        <v>239702.6551738057</v>
+        <v>248562.7946278448</v>
       </c>
       <c r="P6" t="n">
-        <v>239702.6551738056</v>
+        <v>248562.7946278448</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>168.597988489717</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>176.2594526848952</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27472,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>63.30063122618245</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>119.652489182596</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>264.2850375838067</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>153.3897489848012</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>152.5970991193535</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>118.8951616915192</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27736946166581</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>37.22501299855256</v>
+        <v>130.5841931152253</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>149.3681997291715</v>
       </c>
       <c r="I8" t="n">
-        <v>192.1783936941173</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27912,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>166.7213296271232</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.30991402597871</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31840,28 +31840,28 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>70.24128376132171</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>66.08472371006599</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
@@ -32077,28 +32077,28 @@
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>14.57629779021408</v>
       </c>
       <c r="O15" t="n">
         <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
@@ -32314,28 +32314,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>57.74090973668206</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>70.24128376132143</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>19.57424965436761</v>
@@ -32551,28 +32551,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>70.24128376132148</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>20.9748040045144</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436761</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>41.20199547436005</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>21.81779765904122</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
         <v>39.29566048323129</v>
@@ -32882,7 +32882,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
         <v>31.96707026225442</v>
@@ -32891,16 +32891,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,10 +33034,10 @@
         <v>68.45318092253945</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>57.74090973668211</v>
+        <v>57.74090973668206</v>
       </c>
       <c r="O27" t="n">
         <v>75.01019504100589</v>
@@ -33262,7 +33262,7 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J30" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33271,19 +33271,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>57.74090973668211</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P30" t="n">
-        <v>29.99764417805503</v>
+        <v>54.32785726303317</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>19.57424965436761</v>
@@ -33502,13 +33502,13 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>41.20199547436002</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>71.88361648860979</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R33" t="n">
         <v>19.57424965436761</v>
@@ -33742,7 +33742,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33751,10 +33751,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.9583558910936745</v>
       </c>
       <c r="P36" t="n">
-        <v>59.12897300677395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>40.24363958326609</v>
@@ -33973,28 +33973,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>53.40170583599604</v>
       </c>
       <c r="O39" t="n">
-        <v>60.45516400250165</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436761</v>
@@ -34210,25 +34210,25 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409524</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M42" t="n">
-        <v>61.65259222251876</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>57.74090973668217</v>
       </c>
       <c r="O42" t="n">
         <v>75.01019504100589</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34447,28 +34447,28 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J45" t="n">
-        <v>29.78587961321931</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L45" t="n">
-        <v>68.45318092253945</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>79.88163340864766</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>19.33247127722632</v>
       </c>
       <c r="P45" t="n">
-        <v>60.20229453601701</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.24363958326609</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>19.57424965436761</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34789,10 +34789,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O3" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1784674257276</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>393.8123135893033</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>317.3507985423511</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>283.0294564445191</v>
+        <v>362.5769600504343</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>112.5702101577124</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>321.5073585936065</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>393.8123135893031</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>272.2408788367995</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>364.7730253023416</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>369.8184599192614</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M25" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>179.7282553970219</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
         <v>110.3391532330937</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>214.4860054036619</v>
+        <v>238.8162184886401</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>167.8257935125796</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>395.4546463165914</v>
       </c>
       <c r="N33" t="n">
         <v>348.0006622602202</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
@@ -37399,10 +37399,10 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>252.2244307233788</v>
       </c>
       <c r="P36" t="n">
-        <v>243.6173342323809</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3391532330937</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>401.4023680962163</v>
       </c>
       <c r="O39" t="n">
-        <v>311.7212388347867</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>385.2236220505004</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>43.73923952788127</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>340.7791716322998</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>270.5985461095114</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
